--- a/Project_Demoblaze_Testcase.xlsx
+++ b/Project_Demoblaze_Testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="269">
   <si>
     <r>
       <rPr>
@@ -459,7 +459,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>Check the URL "https://www.demoblaze.com/" for the application/website.</t>
+    <t>Check the URL "https://www.demoblaze.com/" for the application/websit is open.</t>
   </si>
   <si>
     <t xml:space="preserve">Internet connection should be working properly.
@@ -485,6 +485,9 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>Check the "Product store" button is working or not.</t>
+  </si>
+  <si>
     <t>Step 1 to 3 as above 
 4.click the "product store"button.</t>
   </si>
@@ -495,6 +498,9 @@
     <t>It will be displayed with other menu options.</t>
   </si>
   <si>
+    <t>Check the" Home page" button  is working or not.</t>
+  </si>
+  <si>
     <t>Steo 1 to 4 as above 
 5.clicking the " home paqge " button.</t>
   </si>
@@ -502,6 +508,9 @@
     <t xml:space="preserve"> information about the image item will be displayed.</t>
   </si>
   <si>
+    <t>Check the "categories" button  is working or not.</t>
+  </si>
+  <si>
     <t>Step 1 to 5 as above 
 6.clicking the "categories" button.</t>
   </si>
@@ -509,11 +518,17 @@
     <t>It will be displayed with other categories options.</t>
   </si>
   <si>
+    <t>Check the "phones" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5.clicking the "phones" button.</t>
   </si>
   <si>
     <t xml:space="preserve"> it will be displayed with all phones informations.</t>
+  </si>
+  <si>
+    <t>Check the "Image"  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -524,6 +539,9 @@
     <t xml:space="preserve"> the information about the image item will be displayed.</t>
   </si>
   <si>
+    <t>Check the  "Add to cart" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 6 as above
 7.clicking the "Add to cart" button.</t>
   </si>
@@ -531,6 +549,9 @@
     <t>pass</t>
   </si>
   <si>
+    <t>Check the "Previous" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 3 as a above 
 4.clicking the "Previous" button.</t>
   </si>
@@ -545,6 +566,9 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>Check the "Next" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 4as a above 
 5.clicking the "Next" button.</t>
   </si>
@@ -556,6 +580,9 @@
     <t xml:space="preserve"> it  will be displays other items instead of phones.</t>
   </si>
   <si>
+    <t>Check the "Leptops" button  is working or not.</t>
+  </si>
+  <si>
     <t xml:space="preserve">step 1 to 3 as above 
 4. clicking the  "Leptops" button .
 </t>
@@ -568,6 +595,9 @@
     <t xml:space="preserve">pass </t>
   </si>
   <si>
+    <t>Check the  "Image" is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5.clicking the "image".</t>
   </si>
@@ -602,6 +632,9 @@
     <t xml:space="preserve"> it  will be displays other items instead of  leptop.</t>
   </si>
   <si>
+    <t>Check the "Monitor" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 3 as above 
 4.clicking the  "Monitor" button.</t>
   </si>
@@ -609,6 +642,9 @@
     <t>the page will be displayed with all monitors informations.</t>
   </si>
   <si>
+    <t>Check the   "Image" is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5.clicking the  "Image".</t>
   </si>
@@ -640,6 +676,9 @@
 </t>
   </si>
   <si>
+    <t>Check the "Contact " button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 3 as aabove 
 4.clicking the "Contact " button.</t>
   </si>
@@ -648,7 +687,7 @@
 </t>
   </si>
   <si>
-    <t>check the " contact mail" button.</t>
+    <t>check the " contact mail" button  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -687,7 +726,7 @@
 </t>
   </si>
   <si>
-    <t>check the" contact name" button.</t>
+    <t>check the" contact name" button  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -723,7 +762,7 @@
 </t>
   </si>
   <si>
-    <t>check the " message" button.</t>
+    <t>check the " message" button  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -737,6 +776,9 @@
     <t>accepted as a message only.</t>
   </si>
   <si>
+    <t>Check the "Close" button  is working or not.</t>
+  </si>
+  <si>
     <t xml:space="preserve">step 1 to 3 as above 
 4. clicking the  "Close" button.
 </t>
@@ -750,6 +792,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Check the "Send message" button  is working or not.
+</t>
+  </si>
+  <si>
     <t>step 1 to 3 as above 
 4.clicking the  "Send message" button.</t>
   </si>
@@ -761,7 +807,8 @@
 </t>
   </si>
   <si>
-    <t>Check the" close button from the contact".</t>
+    <t xml:space="preserve">Check the" close button from the contact" is working or not.
+</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -769,6 +816,9 @@
   </si>
   <si>
     <t xml:space="preserve"> the message  will be hidden.</t>
+  </si>
+  <si>
+    <t>Check the "About us" button  is working or not.</t>
   </si>
   <si>
     <r>
@@ -816,6 +866,9 @@
     <t>It  will be close the video.</t>
   </si>
   <si>
+    <t>Check the "Cart" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 3 as above 
 4.clicking the  "Cart" button.</t>
   </si>
@@ -824,6 +877,9 @@
 </t>
   </si>
   <si>
+    <t>Check the "Delete" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5.clicking the  "Delete" button.</t>
   </si>
@@ -831,6 +887,9 @@
     <t>It will be deletes the selected product.</t>
   </si>
   <si>
+    <t>Check the "Place order" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5.clicking the  "Place order" button.</t>
   </si>
@@ -838,7 +897,7 @@
     <t>It will open the information filling step for ordering.</t>
   </si>
   <si>
-    <t>check the "Name" button.</t>
+    <t>check the "Name" button  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -864,6 +923,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the "Name" button  is working or not.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter Name and number both:Ravi panchal 1234
 </t>
   </si>
@@ -871,7 +933,7 @@
     <t>If you enter a number with name,it also accepted.</t>
   </si>
   <si>
-    <t>check the "country name" button.</t>
+    <t>check the "country name" button  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -901,7 +963,7 @@
     <t>If you enter a Number and country name ,it also accepted.</t>
   </si>
   <si>
-    <t>check the" city name" button.</t>
+    <t>check the" city name" button  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -930,7 +992,7 @@
     <t>If you enter a Number and city name ,it also accepted.</t>
   </si>
   <si>
-    <t>check the "credit card" button.</t>
+    <t>check the "credit card" button  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -966,7 +1028,7 @@
     <t>If you enter a credit card number and  name ,it also accepted.</t>
   </si>
   <si>
-    <t>check the "month"button.</t>
+    <t>check the "month"button  is working or not.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -983,7 +1045,7 @@
 </t>
   </si>
   <si>
-    <t>check the "year" button.</t>
+    <t>check the "year" button is working or not.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -997,6 +1059,10 @@
     <t>accepted as a year only.</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the close button from the place order  is working or not.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">step 1 to 3 as above 
 4. clicking the  "Close" button from the place order
 </t>
@@ -1005,6 +1071,9 @@
     <t>It will be   closes the step of filling the information to place the order</t>
   </si>
   <si>
+    <t>Check the "Purches" button   is working or not.</t>
+  </si>
+  <si>
     <t xml:space="preserve">step 1 to 6 as above 
 7. clicking the  "Purches" button.
 </t>
@@ -1016,10 +1085,16 @@
     <t>it will be  place the order successfully but  even without login the order is placed.</t>
   </si>
   <si>
+    <t>Check the "Ok" button  is working or not.</t>
+  </si>
+  <si>
     <t>steo1 to 7 as above 
 8. "Ok" button.</t>
   </si>
   <si>
+    <t>Check the "Login" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5.clicking the "Login" button.</t>
   </si>
@@ -1030,7 +1105,8 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Check the Login button with user name only.</t>
+    <t xml:space="preserve">Check the Login button with user name only is working or not.
+</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -1045,7 +1121,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Check the Login button without entering username &amp; password.
+    <t xml:space="preserve">Check the Login button without entering username &amp; password is working or not.
 </t>
   </si>
   <si>
@@ -1061,7 +1137,8 @@
 </t>
   </si>
   <si>
-    <t>check the login button with password only.</t>
+    <t xml:space="preserve">check the login button with password only is working or not.
+</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -1076,7 +1153,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">check the login button with invalid username and password
+    <t xml:space="preserve">check the login button with invalid username and password is working or not.
 </t>
   </si>
   <si>
@@ -1100,11 +1177,17 @@
  will be close the login page.</t>
   </si>
   <si>
+    <t>check the  "Login" button  is working or not.</t>
+  </si>
+  <si>
     <t>step 1 to 6 as above
 7.clicking the  "Login" button.</t>
   </si>
   <si>
     <t>it will be done to login.</t>
+  </si>
+  <si>
+    <t>Check the "Log out" button is working or not.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -1912,7 +1995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2022,8 +2105,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2615,33 +2704,33 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" ht="31.5" spans="1:3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2771,7 +2860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" s="38" customFormat="1" ht="30" spans="1:3">
+    <row r="19" s="40" customFormat="1" ht="30" spans="1:3">
       <c r="A19" s="26">
         <v>110</v>
       </c>
@@ -2826,7 +2915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" s="38" customFormat="1" ht="30" spans="1:3">
+    <row r="24" s="40" customFormat="1" ht="30" spans="1:3">
       <c r="A24" s="26">
         <v>115</v>
       </c>
@@ -3084,8 +3173,8 @@
   <sheetPr/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3097,37 +3186,37 @@
       <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" ht="29" customHeight="1" spans="1:3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" ht="31.5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" s="35" customFormat="1" ht="63" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3263,7 +3352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" s="38" customFormat="1" spans="1:2">
+    <row r="24" s="40" customFormat="1" spans="1:2">
       <c r="A24" s="26">
         <v>115</v>
       </c>
@@ -3458,7 +3547,7 @@
   <dimension ref="A1:BF75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3643,19 +3732,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>78</v>
@@ -3672,19 +3761,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>78</v>
@@ -3701,19 +3790,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>78</v>
@@ -3730,19 +3819,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>78</v>
@@ -3759,19 +3848,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>78</v>
@@ -3788,13 +3877,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>76</v>
@@ -3806,7 +3895,7 @@
         <v>78</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="75" spans="1:9">
@@ -3817,25 +3906,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="75" spans="1:9">
@@ -3846,25 +3935,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="75" spans="1:9">
@@ -3875,25 +3964,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" ht="75" spans="1:9">
@@ -3904,25 +3993,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="75" spans="1:9">
@@ -3933,13 +4022,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>76</v>
@@ -3951,7 +4040,7 @@
         <v>78</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="75" spans="1:9">
@@ -3962,25 +4051,25 @@
         <v>13</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="75" spans="1:9">
@@ -3991,25 +4080,25 @@
         <v>14</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" ht="75" spans="1:9">
@@ -4020,25 +4109,25 @@
         <v>15</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" ht="75" spans="1:9">
@@ -4049,25 +4138,25 @@
         <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" ht="75" spans="1:9">
@@ -4078,13 +4167,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>76</v>
@@ -4096,7 +4185,7 @@
         <v>78</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4107,25 +4196,25 @@
         <v>18</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4136,25 +4225,25 @@
         <v>19</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" ht="75" spans="1:9">
@@ -4165,19 +4254,19 @@
         <v>20</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>78</v>
@@ -4192,19 +4281,19 @@
         <v>21</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>78</v>
@@ -4219,25 +4308,25 @@
         <v>22</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4246,25 +4335,25 @@
         <v>23</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4273,25 +4362,25 @@
         <v>24</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="75" spans="1:9">
@@ -4300,25 +4389,25 @@
         <v>26</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4327,25 +4416,25 @@
         <v>27</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4354,25 +4443,25 @@
         <v>28</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4381,25 +4470,25 @@
         <v>29</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" ht="75" spans="1:9">
@@ -4408,25 +4497,25 @@
         <v>30</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="75" spans="1:9">
@@ -4437,22 +4526,22 @@
         <v>31</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>79</v>
@@ -4465,26 +4554,26 @@
       <c r="B37" s="22">
         <v>32</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>34</v>
+      <c r="C37" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="75" spans="1:9">
@@ -4494,26 +4583,26 @@
       <c r="B38" s="18">
         <v>33</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>155</v>
+      <c r="C38" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" ht="75" spans="1:9">
@@ -4524,25 +4613,25 @@
         <v>34</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" ht="75" spans="1:9">
@@ -4553,25 +4642,25 @@
         <v>35</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" ht="75" spans="1:9">
@@ -4582,25 +4671,25 @@
         <v>36</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" ht="75" spans="1:9">
@@ -4611,25 +4700,25 @@
         <v>37</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" ht="75" spans="1:9">
@@ -4640,25 +4729,25 @@
         <v>38</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" ht="75" spans="1:9">
@@ -4667,25 +4756,25 @@
         <v>39</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4694,25 +4783,25 @@
         <v>40</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4721,25 +4810,25 @@
         <v>41</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4748,25 +4837,25 @@
         <v>42</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="75" spans="1:9">
@@ -4775,25 +4864,25 @@
         <v>43</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4802,25 +4891,25 @@
         <v>44</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4829,25 +4918,25 @@
         <v>45</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4856,25 +4945,25 @@
         <v>46</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="75" spans="1:9">
@@ -4883,19 +4972,19 @@
         <v>47</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>78</v>
@@ -4910,25 +4999,25 @@
         <v>48</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4937,25 +5026,25 @@
         <v>49</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4964,25 +5053,25 @@
         <v>50</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="75" spans="1:9">
@@ -4991,19 +5080,19 @@
         <v>51</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>78</v>
@@ -5018,25 +5107,25 @@
         <v>52</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="75" spans="1:9">
@@ -5045,25 +5134,25 @@
         <v>53</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1" ht="75" spans="1:9">
@@ -5072,25 +5161,25 @@
         <v>54</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="75" spans="1:9">
@@ -5099,25 +5188,25 @@
         <v>55</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="75" spans="1:9">
@@ -5126,25 +5215,25 @@
         <v>56</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="75" spans="1:9">
@@ -5153,25 +5242,25 @@
         <v>57</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" ht="75" spans="1:9">
@@ -5181,26 +5270,26 @@
       <c r="B63" s="12">
         <v>58</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>47</v>
+      <c r="C63" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1" ht="75" spans="1:9">
@@ -5211,25 +5300,25 @@
         <v>59</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="75" spans="1:9">
@@ -5240,25 +5329,25 @@
         <v>60</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="D65" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F65" s="36" t="s">
         <v>76</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H65" s="29" t="s">
         <v>78</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" ht="75" spans="1:9">
@@ -5269,25 +5358,25 @@
         <v>61</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F66" s="36" t="s">
         <v>76</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="H66" s="29" t="s">
         <v>78</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" ht="75" spans="1:9">
@@ -5295,26 +5384,26 @@
       <c r="B67" s="12">
         <v>62</v>
       </c>
-      <c r="C67" s="29" t="s">
-        <v>221</v>
+      <c r="C67" s="37" t="s">
+        <v>245</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" s="37" t="s">
-        <v>223</v>
+        <v>246</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>247</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" ht="75" spans="1:9">
@@ -5323,25 +5412,25 @@
         <v>63</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="D68" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="F68" s="37" t="s">
-        <v>227</v>
+        <v>250</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>251</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" ht="75" spans="1:9">
@@ -5349,26 +5438,26 @@
       <c r="B69" s="12">
         <v>64</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>229</v>
+      <c r="C69" s="39" t="s">
+        <v>253</v>
       </c>
       <c r="D69" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="F69" s="37" t="s">
-        <v>231</v>
+        <v>254</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>255</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" ht="75" spans="1:9">
@@ -5377,25 +5466,25 @@
         <v>65</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F70" s="37" t="s">
-        <v>235</v>
+        <v>258</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" ht="75" spans="1:9">
@@ -5406,25 +5495,25 @@
         <v>66</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="D71" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" ht="75" spans="1:9">
@@ -5435,25 +5524,25 @@
         <v>67</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" ht="75" spans="1:9">
@@ -5464,25 +5553,25 @@
         <v>68</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="D73" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:9">

--- a/Project_Demoblaze_Testcase.xlsx
+++ b/Project_Demoblaze_Testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="294">
   <si>
     <r>
       <rPr>
@@ -485,7 +485,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Check the "Product store" button is working or not.</t>
+    <t>Check the "Product store" button with other menu option.</t>
   </si>
   <si>
     <t>Step 1 to 3 as above 
@@ -498,7 +498,7 @@
     <t>It will be displayed with other menu options.</t>
   </si>
   <si>
-    <t>Check the" Home page" button  is working or not.</t>
+    <t>Check the" Home page" button show iteams.</t>
   </si>
   <si>
     <t>Steo 1 to 4 as above 
@@ -508,7 +508,7 @@
     <t xml:space="preserve"> information about the image item will be displayed.</t>
   </si>
   <si>
-    <t>Check the "categories" button  is working or not.</t>
+    <t>Check the "categories" button  other categories is enabled.</t>
   </si>
   <si>
     <t>Step 1 to 5 as above 
@@ -518,7 +518,8 @@
     <t>It will be displayed with other categories options.</t>
   </si>
   <si>
-    <t>Check the "phones" button  is working or not.</t>
+    <t xml:space="preserve">Check the "phones" button  will get the information of the phones details.
+</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -528,7 +529,7 @@
     <t xml:space="preserve"> it will be displayed with all phones informations.</t>
   </si>
   <si>
-    <t>Check the "Image"  is working or not.</t>
+    <t>Check the "Image"  is open the phones image.</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -539,7 +540,8 @@
     <t xml:space="preserve"> the information about the image item will be displayed.</t>
   </si>
   <si>
-    <t>Check the  "Add to cart" button  is working or not.</t>
+    <t xml:space="preserve">Check the  "Add to cart" button  will move the iteam to the cart.
+</t>
   </si>
   <si>
     <t>step 1 to 6 as above
@@ -566,7 +568,8 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Check the "Next" button  is working or not.</t>
+    <t xml:space="preserve">Check the "Next" button  is open the phones information.
+</t>
   </si>
   <si>
     <t>step 1 to 4as a above 
@@ -580,7 +583,8 @@
     <t xml:space="preserve"> it  will be displays other items instead of phones.</t>
   </si>
   <si>
-    <t>Check the "Leptops" button  is working or not.</t>
+    <t>Check the "Leptops" button  will get the information of the leptos
+ details.</t>
   </si>
   <si>
     <t xml:space="preserve">step 1 to 3 as above 
@@ -595,7 +599,7 @@
     <t xml:space="preserve">pass </t>
   </si>
   <si>
-    <t>Check the  "Image" is working or not.</t>
+    <t>Check the  "Image"  is open the le[ptos image.</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -606,6 +610,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Check the  "Add to cart" button will move the iteam to the cart.
+</t>
+  </si>
+  <si>
     <t>step 1 to 5 as above 
 6.clicking the "add to cart" button.</t>
   </si>
@@ -621,6 +629,11 @@
     <t xml:space="preserve"> it will be displays other items instead of leptop.</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the "Next" button  is open the leptops 
+information.
+</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5. clocking the  "Next" button.</t>
   </si>
@@ -632,7 +645,8 @@
     <t xml:space="preserve"> it  will be displays other items instead of  leptop.</t>
   </si>
   <si>
-    <t>Check the "Monitor" button  is working or not.</t>
+    <t>Check the "Monitor" button   will get the information of the monitors
+ details.</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -642,7 +656,7 @@
     <t>the page will be displayed with all monitors informations.</t>
   </si>
   <si>
-    <t>Check the   "Image" is working or not.</t>
+    <t>Check the   "Image" is open or not.</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -653,10 +667,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Check the  "Add to cart" button  items is add Add to cart.
+</t>
+  </si>
+  <si>
     <t>step 1 to 5 as above 
 6. clicking the  "Add to cart" button.</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the "Previous" button  it displayed previous button.
+</t>
+  </si>
+  <si>
     <t>step 1 to 3 as above 
 4. clicking  "Previous" button.</t>
   </si>
@@ -668,6 +690,9 @@
     <t xml:space="preserve"> it will be displays other items instead of monitors.</t>
   </si>
   <si>
+    <t>Check the "Next" button  it displyed next button.</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5.clicking  "Next" button.</t>
   </si>
@@ -676,7 +701,8 @@
 </t>
   </si>
   <si>
-    <t>Check the "Contact " button  is working or not.</t>
+    <t>Check the "Contact " button  is open the contact message page
+.</t>
   </si>
   <si>
     <t>step 1 to 3 as aabove 
@@ -687,7 +713,8 @@
 </t>
   </si>
   <si>
-    <t>check the " contact mail" button  is working or not.</t>
+    <t xml:space="preserve">check the " contact mail" button  enter the Email address and accept Email address.
+</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -701,6 +728,9 @@
     <t>accepted as a Email address only</t>
   </si>
   <si>
+    <t>check the " contact mail" button  enter only name.</t>
+  </si>
+  <si>
     <t xml:space="preserve">only name : Ravi panchal </t>
   </si>
   <si>
@@ -712,6 +742,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the " contact mail" button  enter number only.
+</t>
+  </si>
+  <si>
     <t>Enter only number:1234</t>
   </si>
   <si>
@@ -719,6 +753,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the " contact mail" button enter special symbol.
+</t>
+  </si>
+  <si>
     <t>Enter special symbol only :$%&amp;</t>
   </si>
   <si>
@@ -726,7 +764,7 @@
 </t>
   </si>
   <si>
-    <t>check the" contact name" button  is working or not.</t>
+    <t>check the" contact name" button enter name only.</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -747,6 +785,10 @@
     <t xml:space="preserve">Pass </t>
   </si>
   <si>
+    <t xml:space="preserve">check the" contact name" button  Enter number only .
+</t>
+  </si>
+  <si>
     <t>Enter number only :1234</t>
   </si>
   <si>
@@ -754,15 +796,23 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the" contact name" button Enter special symbol .
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you enter a special symbol other than the name,it also accepted.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the" contact name" button  Enter only number.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you enter a Number other than the name,it also accepted.
 </t>
   </si>
   <si>
-    <t>check the " message" button  is working or not.</t>
+    <t>check the " message" button enter the massage.</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -776,7 +826,7 @@
     <t>accepted as a message only.</t>
   </si>
   <si>
-    <t>Check the "Close" button  is working or not.</t>
+    <t>Check the "Close" button  message page is close.</t>
   </si>
   <si>
     <t xml:space="preserve">step 1 to 3 as above 
@@ -792,8 +842,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Check the "Send message" button  is working or not.
-</t>
+    <t>Check the "Send message" button is sending message.</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -818,7 +867,7 @@
     <t xml:space="preserve"> the message  will be hidden.</t>
   </si>
   <si>
-    <t>Check the "About us" button  is working or not.</t>
+    <t>Check the "About us" button  is displyed video .</t>
   </si>
   <si>
     <r>
@@ -859,6 +908,9 @@
 </t>
   </si>
   <si>
+    <t>Check the "Close" button  video is close.</t>
+  </si>
+  <si>
     <t>step 1 to 4 as above 
 5.clicking the "close" button.</t>
   </si>
@@ -866,7 +918,7 @@
     <t>It  will be close the video.</t>
   </si>
   <si>
-    <t>Check the "Cart" button  is working or not.</t>
+    <t>Check the "Cart" button  place the product .</t>
   </si>
   <si>
     <t>step 1 to 3 as above 
@@ -877,7 +929,7 @@
 </t>
   </si>
   <si>
-    <t>Check the "Delete" button  is working or not.</t>
+    <t>Check the "Delete" button  is delete the product.</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -887,7 +939,8 @@
     <t>It will be deletes the selected product.</t>
   </si>
   <si>
-    <t>Check the "Place order" button  is working or not.</t>
+    <t xml:space="preserve">Check the "Place order" button  is open order place process information.
+</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -897,7 +950,7 @@
     <t>It will open the information filling step for ordering.</t>
   </si>
   <si>
-    <t>check the "Name" button  is working or not.</t>
+    <t>check the "Name" button Enter Name only.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -911,10 +964,17 @@
     <t>accepted as a Name only.</t>
   </si>
   <si>
+    <t>check the "Name" button Enter number only .</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you enter a number other than the name,it also accepted.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the "Name" button Enter special symbol only.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter special symbol only :$%&amp;
 </t>
   </si>
@@ -923,7 +983,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">check the "Name" button  is working or not.  </t>
+    <t xml:space="preserve">check the "Name" button Enter Name and number both.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Enter Name and number both:Ravi panchal 1234
@@ -933,7 +994,8 @@
     <t>If you enter a number with name,it also accepted.</t>
   </si>
   <si>
-    <t>check the "country name" button  is working or not.</t>
+    <t xml:space="preserve">check the "country name" button  Enter country name only .
+</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -948,14 +1010,26 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the "country name" button Enter number only .
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you enter a number other than the country  name,it also accepted.
 </t>
   </si>
   <si>
+    <t>check the "country name" button Enter special symbol only .</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you enter a special symbol other than the country  name,it also accepted.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the "country name" button Enter country name and number
+.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter country name and number
 </t>
   </si>
@@ -963,7 +1037,7 @@
     <t>If you enter a Number and country name ,it also accepted.</t>
   </si>
   <si>
-    <t>check the" city name" button  is working or not.</t>
+    <t>check the" city name" button Enter city name only.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -977,14 +1051,26 @@
     <t xml:space="preserve">accepted as a city name only </t>
   </si>
   <si>
+    <t>check the" city name" button Enter number only.</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you enter a number other than the city  name,it also accepted.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the" city name" button Enter special symbol only .
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you enter a special symbol other than the city  name,it also accepted.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the" city name" button Enter city  name and number
+.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter city  name and number
 </t>
   </si>
@@ -992,7 +1078,8 @@
     <t>If you enter a Number and city name ,it also accepted.</t>
   </si>
   <si>
-    <t>check the "credit card" button  is working or not.</t>
+    <t xml:space="preserve">check the "credit card" button Enter credit card number.
+</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -1006,6 +1093,9 @@
 </t>
   </si>
   <si>
+    <t>check the "credit card" button Enter Name only.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter Name: Ravi panchal
 </t>
   </si>
@@ -1017,10 +1107,18 @@
     <t>fail</t>
   </si>
   <si>
+    <t xml:space="preserve">check the "credit card" button Enter special symbol only.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">If you enter a special symbol   other than the credit card number ,it also accepted.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">check the "credit card" button Enter credit card number and name.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter credit card number and name:4000 1234 5678 9011 Ravi panchal
 </t>
   </si>
@@ -1028,7 +1126,7 @@
     <t>If you enter a credit card number and  name ,it also accepted.</t>
   </si>
   <si>
-    <t>check the "month"button  is working or not.</t>
+    <t>check the "month"button  Enter month.</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -1041,11 +1139,16 @@
     <t>accepted as a month only.</t>
   </si>
   <si>
+    <t xml:space="preserve">check the "month"button Enter the month in numeric form.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the month in numeric form: 2,3,12,9
 </t>
   </si>
   <si>
-    <t>check the "year" button is working or not.</t>
+    <t xml:space="preserve">check the "year" button Eter the year in numeric form.
+</t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -1071,7 +1174,7 @@
     <t>It will be   closes the step of filling the information to place the order</t>
   </si>
   <si>
-    <t>Check the "Purches" button   is working or not.</t>
+    <t>Check the "Purches" button    order successfully.</t>
   </si>
   <si>
     <t xml:space="preserve">step 1 to 6 as above 
@@ -1092,7 +1195,7 @@
 8. "Ok" button.</t>
   </si>
   <si>
-    <t>Check the "Login" button  is working or not.</t>
+    <t>Check the "Login" button  is Login this application.</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -1105,8 +1208,7 @@
     <t>PASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Check the Login button with user name only is working or not.
-</t>
+    <t>Check the Login button with user name only .</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -1121,7 +1223,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Check the Login button without entering username &amp; password is working or not.
+    <t xml:space="preserve">Check the Login button without entering username &amp; password.
 </t>
   </si>
   <si>
@@ -1137,8 +1239,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">check the login button with password only is working or not.
-</t>
+    <t>check the login button with password only.</t>
   </si>
   <si>
     <t>step 1 to 4 as above 
@@ -1169,6 +1270,9 @@
 </t>
   </si>
   <si>
+    <t>Check the "Close" button  is  close the login page.</t>
+  </si>
+  <si>
     <t>step 1 to 5 as above 
 6.clicking the  "Close" button.</t>
   </si>
@@ -1177,7 +1281,7 @@
  will be close the login page.</t>
   </si>
   <si>
-    <t>check the  "Login" button  is working or not.</t>
+    <t>check the  "Login" button login successfully.</t>
   </si>
   <si>
     <t>step 1 to 6 as above
@@ -1187,7 +1291,7 @@
     <t>it will be done to login.</t>
   </si>
   <si>
-    <t>Check the "Log out" button is working or not.</t>
+    <t xml:space="preserve">Check the "Log out" button is Logout successfully. </t>
   </si>
   <si>
     <t>step 1 to 5 as above 
@@ -1995,7 +2099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2072,8 +2176,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2090,6 +2200,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2105,15 +2218,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2149,6 +2256,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2689,7 +2799,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2704,33 +2814,33 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="E5" s="52"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" ht="31.5" spans="1:3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2860,11 +2970,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" s="40" customFormat="1" ht="30" spans="1:3">
-      <c r="A19" s="26">
+    <row r="19" s="41" customFormat="1" ht="30" spans="1:3">
+      <c r="A19" s="53">
         <v>110</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -2915,11 +3025,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" s="40" customFormat="1" ht="30" spans="1:3">
-      <c r="A24" s="26">
+    <row r="24" s="41" customFormat="1" ht="30" spans="1:3">
+      <c r="A24" s="53">
         <v>115</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -3174,7 +3284,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3186,37 +3296,37 @@
       <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" ht="29" customHeight="1" spans="1:3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" ht="31.5" spans="1:2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" s="35" customFormat="1" ht="63" spans="1:2">
-      <c r="A6" s="51" t="s">
+    <row r="6" s="38" customFormat="1" ht="63" spans="1:2">
+      <c r="A6" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3352,11 +3462,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" s="40" customFormat="1" spans="1:2">
-      <c r="A24" s="26">
+    <row r="24" s="41" customFormat="1" spans="1:2">
+      <c r="A24" s="53">
         <v>115</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="53" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3571,7 +3681,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="32"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7"/>
@@ -3582,7 +3692,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="33"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7"/>
@@ -3593,7 +3703,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="33"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7"/>
@@ -3604,7 +3714,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="33"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" ht="15.75" spans="1:9">
       <c r="A5" s="9"/>
@@ -3615,7 +3725,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="63" spans="1:58">
       <c r="A6" s="11" t="s">
@@ -3645,55 +3755,55 @@
       <c r="I6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
     </row>
     <row r="7" ht="90" spans="1:9">
       <c r="A7" s="12">
@@ -3789,7 +3899,7 @@
       <c r="B10" s="12">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -3818,7 +3928,7 @@
       <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3876,7 +3986,7 @@
       <c r="B13" s="18">
         <v>7</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -3934,7 +4044,7 @@
       <c r="B15" s="22">
         <v>9</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="23" t="s">
@@ -3963,7 +4073,7 @@
       <c r="B16" s="12">
         <v>10</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -4021,14 +4131,14 @@
       <c r="B18" s="18">
         <v>12</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>96</v>
+      <c r="C18" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>76</v>
@@ -4057,16 +4167,16 @@
         <v>74</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>103</v>
@@ -4079,23 +4189,23 @@
       <c r="B20" s="22">
         <v>14</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>104</v>
+      <c r="C20" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>103</v>
@@ -4108,20 +4218,20 @@
       <c r="B21" s="12">
         <v>15</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>122</v>
+      <c r="C21" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>78</v>
@@ -4138,19 +4248,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>78</v>
@@ -4167,13 +4277,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>76</v>
@@ -4195,23 +4305,23 @@
       <c r="B24" s="22">
         <v>18</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>99</v>
+      <c r="C24" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>103</v>
@@ -4225,22 +4335,22 @@
         <v>19</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>103</v>
@@ -4253,20 +4363,20 @@
       <c r="B26" s="12">
         <v>20</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>134</v>
+      <c r="C26" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>78</v>
@@ -4280,20 +4390,20 @@
       <c r="B27" s="12">
         <v>21</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>137</v>
+      <c r="C27" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>78</v>
@@ -4308,22 +4418,22 @@
         <v>22</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>103</v>
@@ -4334,23 +4444,23 @@
       <c r="B29" s="22">
         <v>23</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>137</v>
+      <c r="C29" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>103</v>
@@ -4361,23 +4471,23 @@
       <c r="B30" s="22">
         <v>24</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>137</v>
+      <c r="C30" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>103</v>
@@ -4389,25 +4499,25 @@
         <v>26</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4415,23 +4525,23 @@
       <c r="B32" s="22">
         <v>27</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>148</v>
+      <c r="C32" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>103</v>
@@ -4442,23 +4552,23 @@
       <c r="B33" s="22">
         <v>28</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>148</v>
+      <c r="C33" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I33" s="22" t="s">
         <v>103</v>
@@ -4469,53 +4579,53 @@
       <c r="B34" s="22">
         <v>29</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>148</v>
+      <c r="C34" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" ht="75" spans="1:9">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31">
         <v>30</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="30" t="s">
+      <c r="C35" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="I35" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="75" spans="1:9">
@@ -4526,22 +4636,22 @@
         <v>31</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>79</v>
@@ -4555,22 +4665,22 @@
         <v>32</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I37" s="22" t="s">
         <v>103</v>
@@ -4584,25 +4694,25 @@
         <v>33</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" ht="75" spans="1:9">
@@ -4613,25 +4723,25 @@
         <v>34</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" ht="75" spans="1:9">
@@ -4642,25 +4752,25 @@
         <v>35</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" ht="75" spans="1:9">
@@ -4671,25 +4781,25 @@
         <v>36</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" ht="75" spans="1:9">
@@ -4700,25 +4810,25 @@
         <v>37</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" ht="75" spans="1:9">
@@ -4728,26 +4838,26 @@
       <c r="B43" s="12">
         <v>38</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>184</v>
+      <c r="C43" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" ht="75" spans="1:9">
@@ -4756,25 +4866,25 @@
         <v>39</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4783,22 +4893,22 @@
         <v>40</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>103</v>
@@ -4809,23 +4919,23 @@
       <c r="B46" s="22">
         <v>41</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>187</v>
+      <c r="C46" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>192</v>
+        <v>200</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>103</v>
@@ -4836,23 +4946,23 @@
       <c r="B47" s="22">
         <v>42</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>194</v>
+      <c r="C47" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>209</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>103</v>
@@ -4863,26 +4973,26 @@
       <c r="B48" s="18">
         <v>43</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>197</v>
+      <c r="C48" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" ht="75" spans="1:9">
@@ -4890,23 +5000,23 @@
       <c r="B49" s="22">
         <v>44</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>197</v>
+      <c r="C49" s="27" t="s">
+        <v>215</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>103</v>
@@ -4917,23 +5027,23 @@
       <c r="B50" s="22">
         <v>45</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>197</v>
+      <c r="C50" s="27" t="s">
+        <v>217</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>192</v>
+        <v>212</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>103</v>
@@ -4944,23 +5054,23 @@
       <c r="B51" s="22">
         <v>46</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>197</v>
+      <c r="C51" s="27" t="s">
+        <v>219</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>203</v>
+        <v>212</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>220</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>103</v>
@@ -4972,19 +5082,19 @@
         <v>47</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>78</v>
@@ -4999,22 +5109,22 @@
         <v>48</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="I53" s="22" t="s">
         <v>103</v>
@@ -5025,23 +5135,23 @@
       <c r="B54" s="22">
         <v>49</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>205</v>
+      <c r="C54" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E54" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="G54" s="22" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="I54" s="22" t="s">
         <v>103</v>
@@ -5052,23 +5162,23 @@
       <c r="B55" s="22">
         <v>50</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>205</v>
+      <c r="C55" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>103</v>
@@ -5079,20 +5189,20 @@
       <c r="B56" s="18">
         <v>51</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>213</v>
+      <c r="C56" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>78</v>
@@ -5107,25 +5217,25 @@
         <v>52</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>217</v>
+        <v>234</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>238</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="75" spans="1:9">
@@ -5133,26 +5243,26 @@
       <c r="B58" s="22">
         <v>53</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>213</v>
+      <c r="C58" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>192</v>
+        <v>234</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1" ht="75" spans="1:9">
@@ -5160,26 +5270,26 @@
       <c r="B59" s="22">
         <v>54</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>213</v>
+      <c r="C59" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>221</v>
+        <v>234</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>244</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="75" spans="1:9">
@@ -5188,22 +5298,22 @@
         <v>55</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I60" s="18" t="s">
         <v>98</v>
@@ -5214,23 +5324,23 @@
       <c r="B61" s="18">
         <v>56</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>223</v>
+      <c r="C61" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I61" s="18" t="s">
         <v>98</v>
@@ -5241,23 +5351,23 @@
       <c r="B62" s="12">
         <v>57</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>228</v>
+      <c r="C62" s="28" t="s">
+        <v>252</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>254</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>98</v>
@@ -5271,22 +5381,22 @@
         <v>58</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>98</v>
@@ -5300,83 +5410,83 @@
         <v>59</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="I64" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" ht="75" spans="1:9">
-      <c r="A65" s="29">
+      <c r="A65" s="31">
         <v>406</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="31">
         <v>60</v>
       </c>
-      <c r="C65" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F65" s="36" t="s">
+      <c r="C65" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="H65" s="29" t="s">
+      <c r="G65" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="H65" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I65" s="29" t="s">
+      <c r="I65" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" ht="75" spans="1:9">
-      <c r="A66" s="29">
+      <c r="A66" s="31">
         <v>501</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="31">
         <v>61</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="F66" s="36" t="s">
+      <c r="C66" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="H66" s="29" t="s">
+      <c r="G66" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H66" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I66" s="29" t="s">
-        <v>244</v>
+      <c r="I66" s="31" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="67" ht="75" spans="1:9">
@@ -5384,26 +5494,26 @@
       <c r="B67" s="12">
         <v>62</v>
       </c>
-      <c r="C67" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="F67" s="38" t="s">
-        <v>247</v>
+      <c r="C67" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>271</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" ht="75" spans="1:9">
@@ -5412,25 +5522,25 @@
         <v>63</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="F68" s="38" t="s">
-        <v>251</v>
+        <v>273</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>275</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" ht="75" spans="1:9">
@@ -5438,26 +5548,26 @@
       <c r="B69" s="12">
         <v>64</v>
       </c>
-      <c r="C69" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>255</v>
+      <c r="C69" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>279</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" ht="75" spans="1:9">
@@ -5466,25 +5576,25 @@
         <v>65</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>259</v>
+        <v>281</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" ht="75" spans="1:9">
@@ -5495,25 +5605,25 @@
         <v>66</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D71" s="32" t="s">
         <v>74</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" ht="75" spans="1:9">
@@ -5524,25 +5634,25 @@
         <v>67</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D72" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="32" t="s">
         <v>74</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" ht="75" spans="1:9">
@@ -5553,25 +5663,25 @@
         <v>68</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D73" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="32" t="s">
         <v>74</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:9">
